--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Btc-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Btc-Erbb3.xlsx
@@ -543,40 +543,40 @@
         <v>0.410797</v>
       </c>
       <c r="I2">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J2">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N2">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O2">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P2">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q2">
-        <v>0.02301234585477778</v>
+        <v>0.01795780827855556</v>
       </c>
       <c r="R2">
-        <v>0.207111112693</v>
+        <v>0.161620274507</v>
       </c>
       <c r="S2">
-        <v>0.006428622333916288</v>
+        <v>0.002195607878733634</v>
       </c>
       <c r="T2">
-        <v>0.006428622333916286</v>
+        <v>0.002195607878733635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.410797</v>
       </c>
       <c r="I3">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J3">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>0.908345</v>
       </c>
       <c r="O3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q3">
         <v>0.04146060010722223</v>
@@ -635,10 +635,10 @@
         <v>0.373145400965</v>
       </c>
       <c r="S3">
-        <v>0.01158224118083656</v>
+        <v>0.005069172074921151</v>
       </c>
       <c r="T3">
-        <v>0.01158224118083656</v>
+        <v>0.005069172074921152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.410797</v>
       </c>
       <c r="I4">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J4">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N4">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O4">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P4">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q4">
-        <v>0.5409314189332223</v>
+        <v>0.5490038082037778</v>
       </c>
       <c r="R4">
-        <v>4.868382770399</v>
+        <v>4.941034273834</v>
       </c>
       <c r="S4">
-        <v>0.1511120953429074</v>
+        <v>0.06712384206631815</v>
       </c>
       <c r="T4">
-        <v>0.1511120953429074</v>
+        <v>0.06712384206631816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.410797</v>
       </c>
       <c r="I5">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J5">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N5">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q5">
-        <v>0.05368897698266666</v>
+        <v>0.06581091179100002</v>
       </c>
       <c r="R5">
-        <v>0.483200792844</v>
+        <v>0.592298206119</v>
       </c>
       <c r="S5">
-        <v>0.0149983038971331</v>
+        <v>0.008046358118630409</v>
       </c>
       <c r="T5">
-        <v>0.0149983038971331</v>
+        <v>0.008046358118630411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H6">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I6">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J6">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N6">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O6">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P6">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q6">
-        <v>0.1019723816583333</v>
+        <v>0.1998842807031111</v>
       </c>
       <c r="R6">
-        <v>0.917751434925</v>
+        <v>1.798958526328</v>
       </c>
       <c r="S6">
-        <v>0.02848653215575129</v>
+        <v>0.02443881206098145</v>
       </c>
       <c r="T6">
-        <v>0.02848653215575129</v>
+        <v>0.02443881206098146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H7">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I7">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J7">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>0.908345</v>
       </c>
       <c r="O7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q7">
-        <v>0.1837203457916667</v>
+        <v>0.4614885124844444</v>
       </c>
       <c r="R7">
-        <v>1.653483112125</v>
+        <v>4.15339661236</v>
       </c>
       <c r="S7">
-        <v>0.05132326472078987</v>
+        <v>0.05642380173787068</v>
       </c>
       <c r="T7">
-        <v>0.05132326472078987</v>
+        <v>0.05642380173787068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H8">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I8">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J8">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N8">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O8">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P8">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q8">
-        <v>2.396977059641666</v>
+        <v>6.110836556659555</v>
       </c>
       <c r="R8">
-        <v>21.572793536775</v>
+        <v>54.997529009936</v>
       </c>
       <c r="S8">
-        <v>0.6696084074496111</v>
+        <v>0.7471402234245501</v>
       </c>
       <c r="T8">
-        <v>0.669608407449611</v>
+        <v>0.7471402234245503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H9">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I9">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J9">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N9">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q9">
-        <v>0.2379067690999999</v>
+        <v>0.7325262950639999</v>
       </c>
       <c r="R9">
-        <v>2.1411609219</v>
+        <v>6.592736655576</v>
       </c>
       <c r="S9">
-        <v>0.06646053291905445</v>
+        <v>0.08956218263799423</v>
       </c>
       <c r="T9">
-        <v>0.06646053291905445</v>
+        <v>0.08956218263799424</v>
       </c>
     </row>
   </sheetData>
